--- a/Excel Output/Section_3.xlsx
+++ b/Excel Output/Section_3.xlsx
@@ -496,55 +496,55 @@
         <v>1e-08</v>
       </c>
       <c r="B2">
-        <v>13.27894557644805</v>
+        <v>16.82497721218401</v>
       </c>
       <c r="C2">
-        <v>22.58094418790836</v>
+        <v>28.45306221837776</v>
       </c>
       <c r="D2">
-        <v>13046524792486.6</v>
+        <v>14260474774119.6</v>
       </c>
       <c r="E2">
-        <v>5.367585574295084e-08</v>
+        <v>7.087684130333826e-08</v>
       </c>
       <c r="F2">
-        <v>0.002360588673822701</v>
+        <v>0.0001540974382635574</v>
       </c>
       <c r="G2">
-        <v>288.8380151009035</v>
+        <v>304.6232073171274</v>
       </c>
       <c r="H2">
-        <v>0.9525532124394909</v>
+        <v>0.9766871556037647</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
       </c>
       <c r="J2">
-        <v>1.503719234532486e-07</v>
+        <v>1.643636949493113e-07</v>
       </c>
       <c r="K2">
-        <v>1.049836893965911e-05</v>
+        <v>1.701891812309248e-06</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.000000065614806</v>
+        <v>1.000000025528377</v>
       </c>
       <c r="N2">
-        <v>5.532086077449236e-06</v>
+        <v>5.662713588033674e-06</v>
       </c>
       <c r="O2">
-        <v>3.635541249265561e-06</v>
+        <v>4.935757152443899e-05</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9979578107091988</v>
       </c>
       <c r="Q2">
-        <v>0.559596290710022</v>
+        <v>0.561042332172635</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.9500404872334829</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9525532124394909</v>
+        <v>0.9259974093823017</v>
       </c>
       <c r="X2">
-        <v>-5.873612416412471e-06</v>
+        <v>-2.056910621629532e-06</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -570,55 +570,55 @@
         <v>1.193776641714436e-08</v>
       </c>
       <c r="B3">
-        <v>11.12347579307428</v>
+        <v>14.09390720530509</v>
       </c>
       <c r="C3">
-        <v>19.01265542041175</v>
+        <v>23.9303366529715</v>
       </c>
       <c r="D3">
-        <v>9201792736785.092</v>
+        <v>10046868144314.35</v>
       </c>
       <c r="E3">
-        <v>3.785790525616838e-08</v>
+        <v>4.993454217614539e-08</v>
       </c>
       <c r="F3">
-        <v>0.001664937449536617</v>
+        <v>0.0001085655749989686</v>
       </c>
       <c r="G3">
-        <v>409.5215392064057</v>
+        <v>432.3806683992032</v>
       </c>
       <c r="H3">
-        <v>0.9619633858720571</v>
+        <v>0.9814964124145074</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
       </c>
       <c r="J3">
-        <v>1.63974051406698e-07</v>
+        <v>1.790331211206668e-07</v>
       </c>
       <c r="K3">
-        <v>1.144801535197064e-05</v>
+        <v>1.853785308619392e-06</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.000000071550096</v>
+        <v>1.00000002780678</v>
       </c>
       <c r="N3">
-        <v>6.03249959180024e-06</v>
+        <v>6.168109618068224e-06</v>
       </c>
       <c r="O3">
-        <v>3.635541279437017e-06</v>
+        <v>4.935757256560776e-05</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9979578106661641</v>
       </c>
       <c r="Q3">
-        <v>0.558311400768743</v>
+        <v>0.5599938262080263</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.9501314864795846</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9619633858720571</v>
+        <v>0.9306462003206781</v>
       </c>
       <c r="X3">
-        <v>-0.0004938109755598444</v>
+        <v>-0.0001858881551287339</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -644,55 +644,55 @@
         <v>1.425102670302998e-08</v>
       </c>
       <c r="B4">
-        <v>9.31788695169924</v>
+        <v>11.80615092708146</v>
       </c>
       <c r="C4">
-        <v>16.02471769422347</v>
+        <v>20.14266782716223</v>
       </c>
       <c r="D4">
-        <v>6496762340889.553</v>
+        <v>7083955235801.319</v>
       </c>
       <c r="E4">
-        <v>2.67289016617397e-08</v>
+        <v>3.520839095477028e-08</v>
       </c>
       <c r="F4">
-        <v>0.00117549951748482</v>
+        <v>7.654859826909876e-05</v>
       </c>
       <c r="G4">
-        <v>580.0323495457563</v>
+        <v>613.226851237423</v>
       </c>
       <c r="H4">
-        <v>0.9695803454774877</v>
+        <v>0.9853132244679798</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
       </c>
       <c r="J4">
-        <v>1.789906847856156e-07</v>
+        <v>1.951682903138354e-07</v>
       </c>
       <c r="K4">
-        <v>1.249641690076436e-05</v>
+        <v>2.020855733438854e-06</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.000000078102606</v>
+        <v>1.000000030312836</v>
       </c>
       <c r="N4">
-        <v>6.584951848431098e-06</v>
+        <v>6.724003922242606e-06</v>
       </c>
       <c r="O4">
-        <v>3.635541315778576e-06</v>
+        <v>4.93575738135391e-05</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9979578106145831</v>
       </c>
       <c r="Q4">
-        <v>0.5568262969557191</v>
+        <v>0.5587742654574864</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.9502373424402315</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9695803454774877</v>
+        <v>0.9343693559122066</v>
       </c>
       <c r="X4">
-        <v>-0.0172717608421985</v>
+        <v>-0.00708093346655212</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -718,55 +718,55 @@
         <v>1.701254279852589e-08</v>
       </c>
       <c r="B5">
-        <v>7.80538555212255</v>
+        <v>9.889748646887677</v>
       </c>
       <c r="C5">
-        <v>13.52312153652258</v>
+        <v>16.97090073883771</v>
       </c>
       <c r="D5">
-        <v>4592619516071.252</v>
+        <v>4999661869907.916</v>
       </c>
       <c r="E5">
-        <v>1.889490010158615e-08</v>
+        <v>2.484911943934153e-08</v>
       </c>
       <c r="F5">
-        <v>0.0008309711425266528</v>
+        <v>5.402590716930471e-05</v>
       </c>
       <c r="G5">
-        <v>820.5191638104975</v>
+        <v>868.8730711377706</v>
       </c>
       <c r="H5">
-        <v>0.9757155511036824</v>
+        <v>0.9883399373085987</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
       </c>
       <c r="J5">
-        <v>1.956251490276788e-07</v>
+        <v>2.129633415017622e-07</v>
       </c>
       <c r="K5">
-        <v>1.365776895849103e-05</v>
+        <v>2.205113284509949e-06</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.000000085361056</v>
+        <v>1.000000033076699</v>
       </c>
       <c r="N5">
-        <v>7.196923059053775e-06</v>
+        <v>7.337085042089079e-06</v>
       </c>
       <c r="O5">
-        <v>3.635541359750599e-06</v>
+        <v>4.935757531464469e-05</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9979578105525377</v>
       </c>
       <c r="Q5">
-        <v>0.555120258358371</v>
+        <v>0.557362778762996</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.9503598719955746</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9757155511036824</v>
+        <v>0.9373604314302615</v>
       </c>
       <c r="X5">
-        <v>-0.3215931813924436</v>
+        <v>-0.1451434295959849</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -792,55 +792,55 @@
         <v>2.030917620904735e-08</v>
       </c>
       <c r="B6">
-        <v>6.538396949125159</v>
+        <v>8.284421307393451</v>
       </c>
       <c r="C6">
-        <v>11.42914471364679</v>
+        <v>14.31524647114532</v>
       </c>
       <c r="D6">
-        <v>3251428218586.686</v>
+        <v>3532738516323.901</v>
       </c>
       <c r="E6">
-        <v>1.337698695977072e-08</v>
+        <v>1.75582756642924e-08</v>
       </c>
       <c r="F6">
-        <v>0.0005883010800671912</v>
+        <v>3.817446221415322e-05</v>
       </c>
       <c r="G6">
-        <v>1158.977554382103</v>
+        <v>1229.66122272691</v>
       </c>
       <c r="H6">
-        <v>0.9806358048084365</v>
+        <v>0.9907386651587502</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
       </c>
       <c r="J6">
-        <v>2.141258788883885e-07</v>
+        <v>2.32651834466617e-07</v>
       </c>
       <c r="K6">
-        <v>1.494941625055406e-05</v>
+        <v>2.40897633944996e-06</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.000000093433852</v>
+        <v>1.000000036134645</v>
       </c>
       <c r="N6">
-        <v>7.877552978088505e-06</v>
+        <v>8.015399658187065e-06</v>
       </c>
       <c r="O6">
-        <v>3.635541413242794e-06</v>
+        <v>4.935757712800536e-05</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9979578104775859</v>
       </c>
       <c r="Q6">
-        <v>0.5531745574539834</v>
+        <v>0.5557387786071424</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.9505008691500519</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9806358048084365</v>
+        <v>0.9397748366219973</v>
       </c>
       <c r="X6">
-        <v>-3.361119858695089</v>
+        <v>-1.683076283350735</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -866,55 +866,55 @@
         <v>2.424462017082328e-08</v>
       </c>
       <c r="B7">
-        <v>5.477068926172883</v>
+        <v>6.939674490108821</v>
       </c>
       <c r="C7">
-        <v>9.676872225458288</v>
+        <v>12.09214083653659</v>
       </c>
       <c r="D7">
-        <v>2306069376297.628</v>
+        <v>2499728163741.681</v>
       </c>
       <c r="E7">
-        <v>9.487602955131187e-09</v>
+        <v>1.242404893030235e-08</v>
       </c>
       <c r="F7">
-        <v>0.0004172514395459962</v>
+        <v>2.701184304795635e-05</v>
       </c>
       <c r="G7">
-        <v>1634.093216690894</v>
+        <v>1737.817586155024</v>
       </c>
       <c r="H7">
-        <v>0.9845671936541014</v>
+        <v>0.9926388903361928</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
       </c>
       <c r="J7">
-        <v>2.348000179484226e-07</v>
+        <v>2.545180226342733e-07</v>
       </c>
       <c r="K7">
-        <v>1.639280231876204e-05</v>
+        <v>2.635388179488139e-06</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.000000102455014</v>
+        <v>1.000000039530823</v>
       </c>
       <c r="N7">
-        <v>8.638141219767962e-06</v>
+        <v>8.768740965667861e-06</v>
       </c>
       <c r="O7">
-        <v>3.635541478734091e-06</v>
+        <v>4.935757932974131e-05</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9979578103865813</v>
       </c>
       <c r="Q7">
-        <v>0.5509744003448189</v>
+        <v>0.5538833052377105</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.9506619886208099</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9845671936541014</v>
+        <v>0.9417369205244698</v>
       </c>
       <c r="X7">
-        <v>-18.69182035496107</v>
+        <v>-10.42909691423024</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -940,55 +940,55 @@
         <v>2.89426612471675e-08</v>
       </c>
       <c r="B8">
-        <v>4.588018172567875</v>
+        <v>5.813210149716484</v>
       </c>
       <c r="C8">
-        <v>8.211117836526059</v>
+        <v>10.23161243996667</v>
       </c>
       <c r="D8">
-        <v>1639141967046.787</v>
+        <v>1771783247015.029</v>
       </c>
       <c r="E8">
-        <v>6.743738211120288e-09</v>
+        <v>8.806046222984214e-09</v>
       </c>
       <c r="F8">
-        <v>0.0002965801256459065</v>
+        <v>1.914573419524593e-05</v>
       </c>
       <c r="G8">
-        <v>2298.966410954563</v>
+        <v>2451.807562169851</v>
       </c>
       <c r="H8">
-        <v>0.9876990426579495</v>
+        <v>0.9941437839995158</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
       </c>
       <c r="J8">
-        <v>2.580317192880479e-07</v>
+        <v>2.789119469967169e-07</v>
       </c>
       <c r="K8">
-        <v>1.801474720154587e-05</v>
+        <v>2.887973278377143e-06</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00000011259217</v>
+        <v>1.000000043319599</v>
       </c>
       <c r="N8">
-        <v>9.492820528145347e-06</v>
+        <v>9.609168695132542e-06</v>
       </c>
       <c r="O8">
-        <v>3.635541559524757e-06</v>
+        <v>4.935758201923686e-05</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.997957810275416</v>
       </c>
       <c r="Q8">
-        <v>0.5485113590834908</v>
+        <v>0.5517808612458522</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0.9508445867175512</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9876990426579495</v>
+        <v>0.9433458020199436</v>
       </c>
       <c r="X8">
-        <v>-42.20384543391768</v>
+        <v>-25.90834331214878</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1014,55 +1014,55 @@
         <v>3.455107294592218e-08</v>
       </c>
       <c r="B9">
-        <v>3.843280235387095</v>
+        <v>4.869596159435547</v>
       </c>
       <c r="C9">
-        <v>6.985681416790046</v>
+        <v>8.675077094888652</v>
       </c>
       <c r="D9">
-        <v>1168153686245.552</v>
+        <v>1258394396502.524</v>
       </c>
       <c r="E9">
-        <v>4.806003878107212e-09</v>
+        <v>6.254421493720984e-09</v>
       </c>
       <c r="F9">
-        <v>0.000211361293899777</v>
+        <v>1.359809935488113e-05</v>
       </c>
       <c r="G9">
-        <v>3225.887457615259</v>
+        <v>3452.074783256226</v>
       </c>
       <c r="H9">
-        <v>0.9901880963980678</v>
+        <v>0.9953353996645447</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
       </c>
       <c r="J9">
-        <v>2.843068211189093e-07</v>
+        <v>3.062697270025786e-07</v>
       </c>
       <c r="K9">
-        <v>1.984917018831612e-05</v>
+        <v>3.171247402929359e-06</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.000000124057314</v>
+        <v>1.000000047568711</v>
       </c>
       <c r="N9">
-        <v>1.045946457767273e-05</v>
+        <v>1.055170818127274e-05</v>
       </c>
       <c r="O9">
-        <v>3.635541660078069e-06</v>
+        <v>4.935758532813437e-05</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.9979578101386489</v>
       </c>
       <c r="Q9">
-        <v>0.5457861921137659</v>
+        <v>0.5494217666575311</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0.9510495167768471</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9901880963980678</v>
+        <v>0.9446800868982836</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1085,55 +1085,55 @@
         <v>4.12462638290135e-08</v>
       </c>
       <c r="B10">
-        <v>3.219429917700171</v>
+        <v>4.079151818921587</v>
       </c>
       <c r="C10">
-        <v>5.961886894237562</v>
+        <v>7.37348888248366</v>
       </c>
       <c r="D10">
-        <v>835125728780.1758</v>
+        <v>895969829305.6914</v>
       </c>
       <c r="E10">
-        <v>3.435864251838654e-09</v>
+        <v>4.453113406821974e-09</v>
       </c>
       <c r="F10">
-        <v>0.0001511044793868572</v>
+        <v>9.681771304557964e-06</v>
       </c>
       <c r="G10">
-        <v>4512.293413029868</v>
+        <v>4848.457416165035</v>
       </c>
       <c r="H10">
-        <v>0.9921628134207546</v>
+        <v>0.996278901982812</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
       </c>
       <c r="J10">
-        <v>3.142461232563716e-07</v>
+        <v>3.37140906705436e-07</v>
       </c>
       <c r="K10">
-        <v>2.193941305026053e-05</v>
+        <v>3.490900766701834e-06</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.000000137121332</v>
+        <v>1.000000052363512</v>
       </c>
       <c r="N10">
-        <v>1.156091219315592e-05</v>
+        <v>1.16152925016174e-05</v>
       </c>
       <c r="O10">
-        <v>3.635541786530082e-06</v>
+        <v>4.935758943351287e-05</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.9979578099689608</v>
       </c>
       <c r="Q10">
-        <v>0.5428117725830619</v>
+        <v>0.5468049784848901</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0.9512768838557997</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9921628134207546</v>
+        <v>0.9458016300936123</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1156,55 +1156,55 @@
         <v>4.923882631706737e-08</v>
       </c>
       <c r="B11">
-        <v>2.696844455824335</v>
+        <v>3.417014269154515</v>
       </c>
       <c r="C11">
-        <v>5.107354459286721</v>
+        <v>6.285789321315229</v>
       </c>
       <c r="D11">
-        <v>599295551448.3636</v>
+        <v>639818951377.286</v>
       </c>
       <c r="E11">
-        <v>2.465614566222241e-09</v>
+        <v>3.180002559377332e-09</v>
       </c>
       <c r="F11">
-        <v>0.0001084342622669945</v>
+        <v>6.913827409073924e-06</v>
       </c>
       <c r="G11">
-        <v>6287.936421218773</v>
+        <v>6789.532498539113</v>
       </c>
       <c r="H11">
-        <v>0.9937275643731266</v>
+        <v>0.9970259865114585</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
       </c>
       <c r="J11">
-        <v>3.486501754466912e-07</v>
+        <v>3.722253387542943e-07</v>
       </c>
       <c r="K11">
-        <v>2.434136698300753e-05</v>
+        <v>3.854179942567807e-06</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.000000152133544</v>
+        <v>1.000000057812699</v>
       </c>
       <c r="N11">
-        <v>1.282661508342371e-05</v>
+        <v>1.282403321624287e-05</v>
       </c>
       <c r="O11">
-        <v>3.635541947459965e-06</v>
+        <v>4.935759457746258e-05</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.9979578097563453</v>
       </c>
       <c r="Q11">
-        <v>0.5396155854850875</v>
+        <v>0.5439411685798831</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.9515257764161827</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.9937275643731266</v>
+        <v>0.9467585083583123</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1227,55 +1227,55 @@
         <v>5.878016072274909e-08</v>
       </c>
       <c r="B12">
-        <v>2.259086299386186</v>
+        <v>2.862356449065034</v>
       </c>
       <c r="C12">
-        <v>4.394968121740318</v>
+        <v>5.377605483959768</v>
       </c>
       <c r="D12">
-        <v>431993991805.1332</v>
+        <v>458525127142.4173</v>
       </c>
       <c r="E12">
-        <v>1.777304497156777e-09</v>
+        <v>2.278943245918157e-09</v>
       </c>
       <c r="F12">
-        <v>7.816335311008851e-05</v>
+        <v>4.954782262954542e-06</v>
       </c>
       <c r="G12">
-        <v>8723.112812935602</v>
+        <v>9474.009833725071</v>
       </c>
       <c r="H12">
-        <v>0.9949665491556617</v>
+        <v>0.9976176308564675</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
       </c>
       <c r="J12">
-        <v>3.885593017498834e-07</v>
+        <v>4.124228730421828e-07</v>
       </c>
       <c r="K12">
-        <v>2.712766327003102e-05</v>
+        <v>4.270402360180624e-06</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.000000169547896</v>
+        <v>1.000000064056035</v>
       </c>
       <c r="N12">
-        <v>1.429484609965923e-05</v>
+        <v>1.420893225789362e-05</v>
       </c>
       <c r="O12">
-        <v>3.635542155068227e-06</v>
+        <v>4.935760109654015e-05</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.9979578094868915</v>
       </c>
       <c r="Q12">
-        <v>0.536240921036377</v>
+        <v>0.5408556234995993</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0.9517940127700918</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9949665491556617</v>
+        <v>0.9475873740971608</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1298,55 +1298,55 @@
         <v>7.017038286703823e-08</v>
       </c>
       <c r="B13">
-        <v>1.892386079980431</v>
+        <v>2.397731995287053</v>
       </c>
       <c r="C13">
-        <v>3.802006095579731</v>
+        <v>4.620155787617804</v>
       </c>
       <c r="D13">
-        <v>313048559152.7838</v>
+        <v>329995292733.4424</v>
       </c>
       <c r="E13">
-        <v>1.287940625483673e-09</v>
+        <v>1.640129404132046e-09</v>
       </c>
       <c r="F13">
-        <v>5.664181802024014e-05</v>
+        <v>3.565900157934653e-06</v>
       </c>
       <c r="G13">
-        <v>12037.53288379588</v>
+        <v>13164.04100062807</v>
       </c>
       <c r="H13">
-        <v>0.9959473128299986</v>
+        <v>0.9980862990259617</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
       </c>
       <c r="J13">
-        <v>4.353334933163737e-07</v>
+        <v>4.589000631480191e-07</v>
       </c>
       <c r="K13">
-        <v>3.03932510781964e-05</v>
+        <v>4.751647012928646e-06</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.000000189957819</v>
+        <v>1.000000071274705</v>
       </c>
       <c r="N13">
-        <v>1.601563843912394e-05</v>
+        <v>1.581018012487001e-05</v>
       </c>
       <c r="O13">
-        <v>3.635542426999088e-06</v>
+        <v>4.935760946664223e-05</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.997957809140929</v>
       </c>
       <c r="Q13">
-        <v>0.5327455337001347</v>
+        <v>0.5375902183767163</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0.9520779672924853</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.9959473128299986</v>
+        <v>0.9483153706936865</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1369,55 +1369,55 @@
         <v>8.376776400682913e-08</v>
       </c>
       <c r="B14">
-        <v>1.585209505576094</v>
+        <v>2.008526479328296</v>
       </c>
       <c r="C14">
-        <v>3.30940704283296</v>
+        <v>3.989328894637649</v>
       </c>
       <c r="D14">
-        <v>228258001386.241</v>
+        <v>238686518956.3706</v>
       </c>
       <c r="E14">
-        <v>9.390963302072559e-10</v>
+        <v>1.186310189056195e-09</v>
       </c>
       <c r="F14">
-        <v>4.130013634681255e-05</v>
+        <v>2.579225565895894e-06</v>
       </c>
       <c r="G14">
-        <v>16509.09191415405</v>
+        <v>18199.90329806331</v>
       </c>
       <c r="H14">
-        <v>0.9967238048924506</v>
+        <v>0.9984577020762577</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
       </c>
       <c r="J14">
-        <v>4.907577335573345e-07</v>
+        <v>5.131791847923322e-07</v>
       </c>
       <c r="K14">
-        <v>3.426275084176636e-05</v>
+        <v>5.313676192999601e-06</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.000000214142193</v>
+        <v>1.000000079705143</v>
       </c>
       <c r="N14">
-        <v>1.805466049024207e-05</v>
+        <v>1.768022277496116e-05</v>
       </c>
       <c r="O14">
-        <v>3.635542789187892e-06</v>
+        <v>4.935762037215844e-05</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.9979578086901699</v>
       </c>
       <c r="Q14">
-        <v>0.5291962741291327</v>
+        <v>0.5342033557678189</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0.9523725730671502</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.9967238048924506</v>
+        <v>0.9489618034895037</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1440,55 +1440,55 @@
         <v>9.999999999999992e-08</v>
       </c>
       <c r="B15">
-        <v>1.327894557644806</v>
+        <v>1.682497721218402</v>
       </c>
       <c r="C15">
-        <v>2.901150188521481</v>
+        <v>3.464906961430346</v>
       </c>
       <c r="D15">
-        <v>167618889388.7819</v>
+        <v>173658701263.5648</v>
       </c>
       <c r="E15">
-        <v>6.896156232966538e-10</v>
+        <v>8.631115306721192e-10</v>
       </c>
       <c r="F15">
-        <v>3.032832559654258e-05</v>
+        <v>1.876540677695904e-06</v>
       </c>
       <c r="G15">
-        <v>22481.54929774136</v>
+        <v>25014.99511368697</v>
       </c>
       <c r="H15">
-        <v>0.9973389764082056</v>
+        <v>0.9987522007029235</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
       </c>
       <c r="J15">
-        <v>5.571791671282506e-07</v>
+        <v>5.772560054981633e-07</v>
       </c>
       <c r="K15">
-        <v>3.890003085464947e-05</v>
+        <v>5.977154928688115e-06</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.000000243125193</v>
+        <v>1.000000089657324</v>
       </c>
       <c r="N15">
-        <v>2.049826219103514e-05</v>
+        <v>1.988781906561895e-05</v>
       </c>
       <c r="O15">
-        <v>3.63554328035003e-06</v>
+        <v>4.935763481366688e-05</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.9979578080932573</v>
       </c>
       <c r="Q15">
-        <v>0.5256582457685889</v>
+        <v>0.5307664423860087</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0.9526716256934076</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.9973389764082056</v>
+        <v>0.949539772066051</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1511,55 +1511,55 @@
         <v>1.193776641714435e-07</v>
       </c>
       <c r="B16">
-        <v>1.11234757930743</v>
+        <v>1.40939072053051</v>
       </c>
       <c r="C16">
-        <v>2.563731919782935</v>
+        <v>3.029909623528353</v>
       </c>
       <c r="D16">
-        <v>124080141552.4304</v>
+        <v>127207163518.9409</v>
       </c>
       <c r="E16">
-        <v>5.104890294133102e-10</v>
+        <v>6.322399558352993e-10</v>
       </c>
       <c r="F16">
-        <v>2.24505898278494e-05</v>
+        <v>1.374589439519726e-06</v>
       </c>
       <c r="G16">
-        <v>30370.14850143637</v>
+        <v>34149.58280168299</v>
       </c>
       <c r="H16">
-        <v>0.9978269417996997</v>
+        <v>0.9989859200034371</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
       </c>
       <c r="J16">
-        <v>6.376831780500678e-07</v>
+        <v>6.537538343250226e-07</v>
       </c>
       <c r="K16">
-        <v>4.452050034370503e-05</v>
+        <v>6.769246081056137e-06</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.000000278253127</v>
+        <v>1.000000101538691</v>
       </c>
       <c r="N16">
-        <v>2.345995282963278e-05</v>
+        <v>2.252334812747486e-05</v>
       </c>
       <c r="O16">
-        <v>3.635543959111055e-06</v>
+        <v>4.935765427723135e-05</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.9979578072887674</v>
       </c>
       <c r="Q16">
-        <v>0.5221776776416321</v>
+        <v>0.527355378372762</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0.9529685219631198</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.9978269417996997</v>
+        <v>0.9500579638251453</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1582,55 +1582,55 @@
         <v>1.425102670302997e-07</v>
       </c>
       <c r="B17">
-        <v>0.9317886951699247</v>
+        <v>1.180615092708147</v>
       </c>
       <c r="C17">
-        <v>2.285725802102481</v>
+        <v>2.670039816145711</v>
       </c>
       <c r="D17">
-        <v>92668199191.12823</v>
+        <v>93902370319.9704</v>
       </c>
       <c r="E17">
-        <v>3.812543930937494e-10</v>
+        <v>4.66709804869504e-10</v>
       </c>
       <c r="F17">
-        <v>1.676703221076166e-05</v>
+        <v>1.01470076854974e-06</v>
       </c>
       <c r="G17">
-        <v>40664.78422931654</v>
+        <v>46261.57517382113</v>
       </c>
       <c r="H17">
-        <v>0.9982147496928151</v>
+        <v>0.9991716334279722</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
       </c>
       <c r="J17">
-        <v>7.363158903387759e-07</v>
+        <v>7.461222729111786e-07</v>
       </c>
       <c r="K17">
-        <v>5.140664357674044e-05</v>
+        <v>7.725668297008683e-06</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.000000321291522</v>
+        <v>1.000000115885024</v>
       </c>
       <c r="N17">
-        <v>2.708858669892727e-05</v>
+        <v>2.570565680244464e-05</v>
       </c>
       <c r="O17">
-        <v>3.635544915399519e-06</v>
+        <v>4.935768100267653e-05</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.9979578061841212</v>
       </c>
       <c r="Q17">
-        <v>0.518759221893586</v>
+        <v>0.5240359191068635</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0.9532575338616768</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.9982147496928151</v>
+        <v>0.9505227631570575</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1653,55 +1653,55 @@
         <v>1.701254279852587e-07</v>
       </c>
       <c r="B18">
-        <v>0.7805385552122557</v>
+        <v>0.9889748646887685</v>
       </c>
       <c r="C18">
-        <v>2.057416907551887</v>
+        <v>2.37321694199054</v>
       </c>
       <c r="D18">
-        <v>69872425658.51793</v>
+        <v>69915453731.5513</v>
       </c>
       <c r="E18">
-        <v>2.874682951751665e-10</v>
+        <v>3.47490991518407e-10</v>
       </c>
       <c r="F18">
-        <v>1.264245147619724e-05</v>
+        <v>7.555002540742179e-07</v>
       </c>
       <c r="G18">
-        <v>53931.60877859362</v>
+        <v>62133.2099229003</v>
       </c>
       <c r="H18">
-        <v>0.9985238145424775</v>
+        <v>0.9993194619128587</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
       </c>
       <c r="J18">
-        <v>8.583611224937569e-07</v>
+        <v>8.58889709053041e-07</v>
       </c>
       <c r="K18">
-        <v>5.992735572210109e-05</v>
+        <v>8.893310435524293e-06</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.000000374545973</v>
+        <v>1.000000133399656</v>
       </c>
       <c r="N18">
-        <v>3.157855207357078e-05</v>
+        <v>2.959075863789057e-05</v>
       </c>
       <c r="O18">
-        <v>3.635546288729986e-06</v>
+        <v>4.935771841147247e-05</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.9979578046378988</v>
       </c>
       <c r="Q18">
-        <v>0.5153408634255596</v>
+        <v>0.5208429342679713</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0.9535356168473468</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.9985238145424775</v>
+        <v>0.9509407187442226</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1724,55 +1724,55 @@
         <v>2.030917620904733e-07</v>
       </c>
       <c r="B19">
-        <v>0.6538396949125166</v>
+        <v>0.828442130739346</v>
       </c>
       <c r="C19">
-        <v>1.870504614077338</v>
+        <v>2.129187003573443</v>
       </c>
       <c r="D19">
-        <v>53213181192.34044</v>
+        <v>52544403976.15022</v>
       </c>
       <c r="E19">
-        <v>2.189290315033527e-10</v>
+        <v>2.611540948661027e-10</v>
       </c>
       <c r="F19">
-        <v>9.62819101781453e-06</v>
+        <v>5.677902156879704e-07</v>
       </c>
       <c r="G19">
-        <v>70815.768585716</v>
+        <v>82674.29516431596</v>
       </c>
       <c r="H19">
-        <v>0.998771061811756</v>
+        <v>0.9994374252215547</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
       </c>
       <c r="J19">
-        <v>1.010681254361173e-06</v>
+        <v>9.979791271700889e-07</v>
       </c>
       <c r="K19">
-        <v>7.056174081579733e-05</v>
+        <v>1.033350160392838e-05</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.00000044101088</v>
+        <v>1.000000155002524</v>
       </c>
       <c r="N19">
-        <v>3.718231148202808e-05</v>
+        <v>3.43827142955314e-05</v>
       </c>
       <c r="O19">
-        <v>3.635548297628319e-06</v>
+        <v>4.935777179251637e-05</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0.9979578024314937</v>
       </c>
       <c r="Q19">
-        <v>0.5117726755690645</v>
+        <v>0.5177557105105189</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0.9538045660395561</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.998771061811756</v>
+        <v>0.9513212180969659</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1795,55 +1795,55 @@
         <v>2.424462017082326e-07</v>
       </c>
       <c r="B20">
-        <v>0.5477068926172888</v>
+        <v>0.6939674490108827</v>
       </c>
       <c r="C20">
-        <v>1.717869956877443</v>
+        <v>1.929202873132804</v>
       </c>
       <c r="D20">
-        <v>40938096605.16817</v>
+        <v>39881132884.01536</v>
       </c>
       <c r="E20">
-        <v>1.684270257958236e-10</v>
+        <v>1.982156114148177e-10</v>
       </c>
       <c r="F20">
-        <v>7.407183806500925e-06</v>
+        <v>4.309520201689565e-07</v>
       </c>
       <c r="G20">
-        <v>92049.5244654542</v>
+        <v>108925.4805321349</v>
       </c>
       <c r="H20">
-        <v>0.9989698372014169</v>
+        <v>0.9995318754108281</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
       </c>
       <c r="J20">
-        <v>1.202135448287695e-06</v>
+        <v>1.171098012204469e-06</v>
       </c>
       <c r="K20">
-        <v>8.392831029717115e-05</v>
+        <v>1.212604838919613e-05</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.000000524551939</v>
+        <v>1.000000181890726</v>
       </c>
       <c r="N20">
-        <v>4.422578779307941e-05</v>
+        <v>4.034706465241372e-05</v>
       </c>
       <c r="O20">
-        <v>3.635551287081997e-06</v>
+        <v>4.935784940492976e-05</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.9979577992235302</v>
       </c>
       <c r="Q20">
-        <v>0.5078081570284126</v>
+        <v>0.5146743298970249</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0.9540730818386406</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.9989698372014169</v>
+        <v>0.9516789600786888</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1866,55 +1866,55 @@
         <v>2.894266124716747e-07</v>
       </c>
       <c r="B21">
-        <v>0.4588018172567879</v>
+        <v>0.581321014971649</v>
       </c>
       <c r="C21">
-        <v>1.593403358963112</v>
+        <v>1.76577033528459</v>
       </c>
       <c r="D21">
-        <v>31808267377.32895</v>
+        <v>30577412079.37641</v>
       </c>
       <c r="E21">
-        <v>1.308651919445982e-10</v>
+        <v>1.519746304204334e-10</v>
       </c>
       <c r="F21">
-        <v>5.755267161113162e-06</v>
+        <v>3.304168300702289e-07</v>
       </c>
       <c r="G21">
-        <v>118470.2165737075</v>
+        <v>142067.9929446107</v>
       </c>
       <c r="H21">
-        <v>0.9991306265101126</v>
+        <v>0.9996078368512388</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
       </c>
       <c r="J21">
-        <v>1.444097578693565e-06</v>
+        <v>1.388216661496476e-06</v>
       </c>
       <c r="K21">
-        <v>0.0001008211427893784</v>
+        <v>1.43741875031511e-05</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.000000630132142</v>
+        <v>1.000000215612812</v>
       </c>
       <c r="N21">
-        <v>5.31274185107608e-05</v>
+        <v>4.782730976335827e-05</v>
       </c>
       <c r="O21">
-        <v>3.635555805193952e-06</v>
+        <v>4.935796425534238e-05</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.997957794476404</v>
       </c>
       <c r="Q21">
-        <v>0.5031170784148096</v>
+        <v>0.5114049727272655</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0.9543580608277936</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9991306265101126</v>
+        <v>0.9520355657864379</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1937,55 +1937,55 @@
         <v>3.455107294592214e-07</v>
       </c>
       <c r="B22">
-        <v>0.3843280235387099</v>
+        <v>0.4869596159435552</v>
       </c>
       <c r="C22">
-        <v>1.49188551488706</v>
+        <v>1.632456107396091</v>
       </c>
       <c r="D22">
-        <v>24947481279.10571</v>
+        <v>23680177082.16037</v>
       </c>
       <c r="E22">
-        <v>1.026386281087213e-10</v>
+        <v>1.176942689266701e-10</v>
       </c>
       <c r="F22">
-        <v>4.513902566741418e-06</v>
+        <v>2.558859143042519e-07</v>
       </c>
       <c r="G22">
-        <v>151050.6123992025</v>
+        <v>183447.5962103315</v>
       </c>
       <c r="H22">
-        <v>0.9992616277579279</v>
+        <v>0.999669273035021</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
       </c>
       <c r="J22">
-        <v>1.751112310064584e-06</v>
+        <v>1.662157759701773e-06</v>
       </c>
       <c r="K22">
-        <v>0.0001222556888523965</v>
+        <v>1.721069049266091e-05</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.000000764098055</v>
+        <v>1.000000258160357</v>
       </c>
       <c r="N22">
-        <v>6.442229246053428e-05</v>
+        <v>5.726522109533703e-05</v>
       </c>
       <c r="O22">
-        <v>3.635562727329658e-06</v>
+        <v>4.935813696717309e-05</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.9979577873376847</v>
       </c>
       <c r="Q22">
-        <v>0.4973249252852727</v>
+        <v>0.5076631979275652</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0.9546843233530005</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.9992616277579279</v>
+        <v>0.9524195598984766</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2008,55 +2008,55 @@
         <v>4.124626382901346e-07</v>
       </c>
       <c r="B23">
-        <v>0.3219429917700175</v>
+        <v>0.4079151818921591</v>
       </c>
       <c r="C23">
-        <v>1.408908652755845</v>
+        <v>1.523751960488155</v>
       </c>
       <c r="D23">
-        <v>19735628774.75377</v>
+        <v>18515465415.37505</v>
       </c>
       <c r="E23">
-        <v>8.119608707754666e-11</v>
+        <v>9.202482558888045e-11</v>
       </c>
       <c r="F23">
-        <v>3.570889757806054e-06</v>
+        <v>2.000764935221406e-07</v>
       </c>
       <c r="G23">
-        <v>190940.5759520105</v>
+        <v>234618.5454214955</v>
       </c>
       <c r="H23">
-        <v>0.9993692111595844</v>
+        <v>0.9997192970808322</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
       </c>
       <c r="J23">
-        <v>2.141751266667246e-06</v>
+        <v>2.009336614450373e-06</v>
       </c>
       <c r="K23">
-        <v>0.0001495285453434107</v>
+        <v>2.080552845542245e-05</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.000000934553408</v>
+        <v>1.000000312082927</v>
       </c>
       <c r="N23">
-        <v>7.879364772089819e-05</v>
+        <v>6.922634437666236e-05</v>
       </c>
       <c r="O23">
-        <v>3.635573457984819e-06</v>
+        <v>4.935840042304215e-05</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.997957776448231</v>
       </c>
       <c r="Q23">
-        <v>0.4900757859888837</v>
+        <v>0.5031020355378298</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0.9550821828980832</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.9993692111595844</v>
+        <v>0.9528641447221188</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2079,55 +2079,55 @@
         <v>4.923882631706733e-07</v>
       </c>
       <c r="B24">
-        <v>0.2696844455824337</v>
+        <v>0.3417014269154518</v>
       </c>
       <c r="C24">
-        <v>1.340819335212714</v>
+        <v>1.434984228122851</v>
       </c>
       <c r="D24">
-        <v>15733136779.41111</v>
+        <v>14606440928.06469</v>
       </c>
       <c r="E24">
-        <v>6.472908254021182e-11</v>
+        <v>7.259634844303e-11</v>
       </c>
       <c r="F24">
-        <v>2.846694048868062e-06</v>
+        <v>1.578359181454185e-07</v>
       </c>
       <c r="G24">
-        <v>239515.6400062521</v>
+        <v>297407.9438619875</v>
       </c>
       <c r="H24">
-        <v>0.9994582952103344</v>
+        <v>0.9997603399241987</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
       </c>
       <c r="J24">
-        <v>2.639758229302488e-06</v>
+        <v>2.450717436788384e-06</v>
       </c>
       <c r="K24">
-        <v>0.000184297408494179</v>
+        <v>2.537577377558907e-05</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.000001151858803</v>
+        <v>1.000000380636607</v>
       </c>
       <c r="N24">
-        <v>9.711500267333217e-05</v>
+        <v>8.443294569407456e-05</v>
       </c>
       <c r="O24">
-        <v>3.635590260795739e-06</v>
+        <v>4.935880730208953e-05</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.9979577596306498</v>
       </c>
       <c r="Q24">
-        <v>0.4811052195154485</v>
+        <v>0.4973651110309316</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0.9555828368616914</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.9994582952103344</v>
+        <v>0.9534027596646684</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2150,55 +2150,55 @@
         <v>5.878016072274904e-07</v>
       </c>
       <c r="B25">
-        <v>0.2259086299386188</v>
+        <v>0.2862356449065036</v>
       </c>
       <c r="C25">
-        <v>1.284661077037593</v>
+        <v>1.362251758681338</v>
       </c>
       <c r="D25">
-        <v>12627301300.34247</v>
+        <v>11615330702.71645</v>
       </c>
       <c r="E25">
-        <v>5.19510914822534e-11</v>
+        <v>5.773005204541321e-11</v>
       </c>
       <c r="F25">
-        <v>2.284735966446885e-06</v>
+        <v>1.255142436857019e-07</v>
       </c>
       <c r="G25">
-        <v>298427.3706151568</v>
+        <v>373994.6519595314</v>
       </c>
       <c r="H25">
-        <v>0.9995326588322174</v>
+        <v>0.9997942872640303</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
       </c>
       <c r="J25">
-        <v>3.275594601362588e-06</v>
+        <v>3.013083606536514e-06</v>
       </c>
       <c r="K25">
-        <v>0.000228688972197337</v>
+        <v>3.119875299316638e-05</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.000001429306076</v>
+        <v>1.000000467981295</v>
       </c>
       <c r="N25">
-        <v>0.000120507012701741</v>
+        <v>0.0001038077751043362</v>
       </c>
       <c r="O25">
-        <v>3.635616801199432e-06</v>
+        <v>4.935944237824682e-05</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.9979577333809703</v>
       </c>
       <c r="Q25">
-        <v>0.4703022547444596</v>
+        <v>0.4901552726883197</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0.9562124022856144</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.9995326588322174</v>
+        <v>0.9540632582704791</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2221,55 +2221,55 @@
         <v>7.017038286703817e-07</v>
       </c>
       <c r="B26">
-        <v>0.1892386079980433</v>
+        <v>0.2397731995287056</v>
       </c>
       <c r="C26">
-        <v>1.238099195032609</v>
+        <v>1.302370937912051</v>
       </c>
       <c r="D26">
-        <v>10194227977.27211</v>
+        <v>9302203186.646492</v>
       </c>
       <c r="E26">
-        <v>4.19409704133572e-11</v>
+        <v>4.623343819014293e-11</v>
       </c>
       <c r="F26">
-        <v>1.844504914854687e-06</v>
+        <v>1.005187908519562e-07</v>
       </c>
       <c r="G26">
-        <v>369653.5268220407</v>
+        <v>466993.8375237068</v>
       </c>
       <c r="H26">
-        <v>0.9995952013110804</v>
+        <v>0.9998225932434023</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
       </c>
       <c r="J26">
-        <v>4.088506704298104e-06</v>
+        <v>3.730750398964927e-06</v>
       </c>
       <c r="K26">
-        <v>0.0002854432583442754</v>
+        <v>3.86297811066243e-05</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.000001784020365</v>
+        <v>1.000000579446717</v>
       </c>
       <c r="N26">
-        <v>0.0001504135246593254</v>
+        <v>0.0001285330740726893</v>
       </c>
       <c r="O26">
-        <v>3.635659043235877e-06</v>
+        <v>4.936044270404137e-05</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0.9979576920343847</v>
       </c>
       <c r="Q26">
-        <v>0.457740489247672</v>
+        <v>0.4813003997817135</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0.9569861802183742</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.9995952013110804</v>
+        <v>0.9548622906396871</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2292,55 +2292,55 @@
         <v>8.376776400682906e-07</v>
       </c>
       <c r="B27">
-        <v>0.1585209505576095</v>
+        <v>0.2008526479328298</v>
       </c>
       <c r="C27">
-        <v>1.199322283720361</v>
+        <v>1.252807870262783</v>
       </c>
       <c r="D27">
-        <v>8272022871.675797</v>
+        <v>7495705602.917683</v>
       </c>
       <c r="E27">
-        <v>3.40326572343741e-11</v>
+        <v>3.725485615939734e-11</v>
       </c>
       <c r="F27">
-        <v>1.496708419373533e-06</v>
+        <v>8.099793658228463e-08</v>
       </c>
       <c r="G27">
-        <v>455551.4876451428</v>
+        <v>579541.3792487237</v>
       </c>
       <c r="H27">
-        <v>0.999648155382913</v>
+        <v>0.9998463757458158</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
       </c>
       <c r="J27">
-        <v>5.12923820423864e-06</v>
+        <v>4.647866687827727e-06</v>
       </c>
       <c r="K27">
-        <v>0.0003581029876513724</v>
+        <v>4.812599438798424e-05</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.000002238143673</v>
+        <v>1.000000721889916</v>
       </c>
       <c r="N27">
-        <v>0.0001887013652945083</v>
+        <v>0.0001601298745239812</v>
       </c>
       <c r="O27">
-        <v>3.635726736411463e-06</v>
+        <v>4.936203091612038e-05</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0.9979576263886285</v>
       </c>
       <c r="Q27">
-        <v>0.4436687416136129</v>
+        <v>0.4707956549538924</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0.9579049433112977</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.999648155382913</v>
+        <v>0.9558016866508376</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2363,55 +2363,55 @@
         <v>9.999999999999983e-07</v>
       </c>
       <c r="B28">
-        <v>0.1327894557644807</v>
+        <v>0.1682497721218404</v>
       </c>
       <c r="C28">
-        <v>1.166929761776541</v>
+        <v>1.211587381972467</v>
       </c>
       <c r="D28">
-        <v>6742135289.568846</v>
+        <v>6072390790.366426</v>
       </c>
       <c r="E28">
-        <v>2.773841210272067e-11</v>
+        <v>3.018075381064759e-11</v>
       </c>
       <c r="F28">
-        <v>1.219896367429749e-06</v>
+        <v>6.561772169247112e-08</v>
       </c>
       <c r="G28">
-        <v>558922.6800086264</v>
+        <v>715380.764105132</v>
       </c>
       <c r="H28">
-        <v>0.9996932559073273</v>
+        <v>0.9998664955880432</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
       </c>
       <c r="J28">
-        <v>6.46352412286314e-06</v>
+        <v>5.821456062697208e-06</v>
       </c>
       <c r="K28">
-        <v>0.000451257517586391</v>
+        <v>6.027783940898756e-05</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.000002820359485</v>
+        <v>1.000000904167591</v>
       </c>
       <c r="N28">
-        <v>0.0002377888836572968</v>
+        <v>0.0002005627724452334</v>
       </c>
       <c r="O28">
-        <v>3.635835884802442e-06</v>
+        <v>4.936457040609171e-05</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0.9979575214236007</v>
       </c>
       <c r="Q28">
-        <v>0.428467029507397</v>
+        <v>0.4588085484180427</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0.9589544339197758</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.9996932559073273</v>
+        <v>0.956868026872558</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2434,55 +2434,55 @@
         <v>1.193776641714434e-06</v>
       </c>
       <c r="B29">
-        <v>0.111234757930743</v>
+        <v>0.1409390720530511</v>
       </c>
       <c r="C29">
-        <v>1.139824347889667</v>
+        <v>1.177183402235007</v>
       </c>
       <c r="D29">
-        <v>5516550515.275061</v>
+        <v>4942264956.586769</v>
       </c>
       <c r="E29">
-        <v>2.269612593133847e-11</v>
+        <v>2.456384759662929e-11</v>
       </c>
       <c r="F29">
-        <v>9.981437104560249e-07</v>
+        <v>5.340568116371085e-08</v>
       </c>
       <c r="G29">
-        <v>683095.7705530341</v>
+        <v>878963.714352823</v>
       </c>
       <c r="H29">
-        <v>0.9997318673767872</v>
+        <v>0.9998836203951861</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
       </c>
       <c r="J29">
-        <v>8.176553442485585e-06</v>
+        <v>7.325355479399704e-06</v>
       </c>
       <c r="K29">
-        <v>0.0005708544036862153</v>
+        <v>7.584985550787092e-05</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.000003567840023</v>
+        <v>1.000001137747833</v>
       </c>
       <c r="N29">
-        <v>0.0003008101274621085</v>
+        <v>0.0002523756236020748</v>
       </c>
       <c r="O29">
-        <v>3.636012850738245e-06</v>
+        <v>4.936865690110153e-05</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0.9979573525160609</v>
       </c>
       <c r="Q29">
-        <v>0.4125851016825388</v>
+        <v>0.4456472636818296</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0.9601080500745844</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9997318673767872</v>
+        <v>0.9580353790256362</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2505,55 +2505,55 @@
         <v>1.425102670302995e-06</v>
       </c>
       <c r="B30">
-        <v>0.09317886951699256</v>
+        <v>0.1180615092708148</v>
       </c>
       <c r="C30">
-        <v>1.117126117224288</v>
+        <v>1.148407561097819</v>
       </c>
       <c r="D30">
-        <v>4529067548.580381</v>
+        <v>4038823369.912493</v>
       </c>
       <c r="E30">
-        <v>1.863343535955882e-11</v>
+        <v>2.007359836020427e-11</v>
       </c>
       <c r="F30">
-        <v>8.194722907600513e-07</v>
+        <v>4.364317070508803e-08</v>
       </c>
       <c r="G30">
-        <v>832032.7053209274</v>
+        <v>1075578.49543973</v>
       </c>
       <c r="H30">
-        <v>0.9997650763829192</v>
+        <v>0.9998982738477386</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
       </c>
       <c r="J30">
-        <v>1.037868300424866e-05</v>
+        <v>9.255253320214223e-06</v>
       </c>
       <c r="K30">
-        <v>0.0007245983211769448</v>
+        <v>9.583284101381514e-05</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.000004528739507</v>
+        <v>1.000001437492615</v>
       </c>
       <c r="N30">
-        <v>0.000381825053716985</v>
+        <v>0.0003188651164920192</v>
       </c>
       <c r="O30">
-        <v>3.636301181422699e-06</v>
+        <v>4.937527063226429e-05</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0.9979570791500567</v>
       </c>
       <c r="Q30">
-        <v>0.3964823831537038</v>
+        <v>0.4317060148692154</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0.9613315454627229</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9997650763829192</v>
+        <v>0.9592700284280795</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2576,55 +2576,55 @@
         <v>1.701254279852586e-06</v>
       </c>
       <c r="B31">
-        <v>0.07805385552122562</v>
+        <v>0.09889748646887693</v>
       </c>
       <c r="C31">
-        <v>1.098113720050166</v>
+        <v>1.124314724943676</v>
       </c>
       <c r="D31">
-        <v>3729330160.900741</v>
+        <v>3312254043.895782</v>
       </c>
       <c r="E31">
-        <v>1.534316539601589e-11</v>
+        <v>1.646243255880906e-11</v>
       </c>
       <c r="F31">
-        <v>6.747708434845043e-07</v>
+        <v>3.579192636480506e-08</v>
       </c>
       <c r="G31">
-        <v>1010458.222373209</v>
+        <v>1311515.211691891</v>
       </c>
       <c r="H31">
-        <v>0.9997937573953071</v>
+        <v>0.9999108719224045</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
       </c>
       <c r="J31">
-        <v>1.321280581364587e-05</v>
+        <v>1.173512872265724e-05</v>
       </c>
       <c r="K31">
-        <v>0.0009224654907260903</v>
+        <v>0.0001215105288040929</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.000005765409317</v>
+        <v>1.000001822657932</v>
       </c>
       <c r="N31">
-        <v>0.0004860906039313652</v>
+        <v>0.0004043026222768292</v>
       </c>
       <c r="O31">
-        <v>3.63677297879499e-06</v>
+        <v>4.938602938555249e-05</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0.997956634457603</v>
       </c>
       <c r="Q31">
-        <v>0.3805814571968537</v>
+        <v>0.4174062644680824</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0.9625881230546898</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9997937573953071</v>
+        <v>0.9605355853313401</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2647,55 +2647,55 @@
         <v>2.030917620904732e-06</v>
       </c>
       <c r="B32">
-        <v>0.06538396949125171</v>
+        <v>0.08284421307393466</v>
       </c>
       <c r="C32">
-        <v>1.082187650941999</v>
+        <v>1.104135232560786</v>
       </c>
       <c r="D32">
-        <v>3078669099.252429</v>
+        <v>2724801889.482008</v>
       </c>
       <c r="E32">
-        <v>1.266622346411515e-11</v>
+        <v>1.35427013590279e-11</v>
       </c>
       <c r="F32">
-        <v>5.570427007756509e-07</v>
+        <v>2.944396996563538e-08</v>
       </c>
       <c r="G32">
-        <v>1224013.430329876</v>
+        <v>1594270.607461711</v>
       </c>
       <c r="H32">
-        <v>0.9998186201029173</v>
+        <v>0.9999217487837331</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
       </c>
       <c r="J32">
-        <v>1.686389931688434e-05</v>
+        <v>1.492553543147547e-05</v>
       </c>
       <c r="K32">
-        <v>0.001177370301078584</v>
+        <v>0.0001545453608413548</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.000007358564382</v>
+        <v>1.000002318180413</v>
       </c>
       <c r="N32">
-        <v>0.0006204119790450553</v>
+        <v>0.0005142195928520549</v>
       </c>
       <c r="O32">
-        <v>3.637547859267136e-06</v>
+        <v>4.940360978581118e-05</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0.9979559078058683</v>
       </c>
       <c r="Q32">
-        <v>0.3652386406504299</v>
+        <v>0.4031481993684019</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>0.9638426729116091</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.9998186201029173</v>
+        <v>0.9617972219353325</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2718,55 +2718,55 @@
         <v>2.424462017082324e-06</v>
       </c>
       <c r="B33">
-        <v>0.05477068926172893</v>
+        <v>0.06939674490108833</v>
       </c>
       <c r="C33">
-        <v>1.068846756443522</v>
+        <v>1.087231711966821</v>
       </c>
       <c r="D33">
-        <v>2547139938.982431</v>
+        <v>2247562088.182702</v>
       </c>
       <c r="E33">
-        <v>1.047941257128225e-11</v>
+        <v>1.117074318820214e-11</v>
       </c>
       <c r="F33">
-        <v>4.608698321001217e-07</v>
+        <v>2.428695857698948e-08</v>
       </c>
       <c r="G33">
-        <v>1479436.707561495</v>
+        <v>1932792.685193297</v>
       </c>
       <c r="H33">
-        <v>0.9998402445514782</v>
+        <v>0.9999311753009569</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
       </c>
       <c r="J33">
-        <v>2.157141146188025e-05</v>
+        <v>1.903432388943679e-05</v>
       </c>
       <c r="K33">
-        <v>0.001506030054516255</v>
+        <v>0.0001970895092755428</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.000009412687841</v>
+        <v>1.000002956342639</v>
       </c>
       <c r="N33">
-        <v>0.0007935983146235305</v>
+        <v>0.0006557769619439875</v>
       </c>
       <c r="O33">
-        <v>3.638824601866674e-06</v>
+        <v>4.943244953035587e-05</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0.9979547157721291</v>
       </c>
       <c r="Q33">
-        <v>0.350729864341758</v>
+        <v>0.3892782967905017</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0.9650646377028496</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.9998402445514782</v>
+        <v>0.9630245217855907</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2789,55 +2789,55 @@
         <v>2.894266124716744e-06</v>
       </c>
       <c r="B34">
-        <v>0.04588018172567884</v>
+        <v>0.05813210149716495</v>
       </c>
       <c r="C34">
-        <v>1.057671388429888</v>
+        <v>1.073072051722727</v>
       </c>
       <c r="D34">
-        <v>2111373377.700247</v>
+        <v>1858212569.365624</v>
       </c>
       <c r="E34">
-        <v>8.686587014053822e-12</v>
+        <v>9.23561378375825e-12</v>
       </c>
       <c r="F34">
-        <v>3.820238845888126e-07</v>
+        <v>2.0079681863612e-08</v>
       </c>
       <c r="G34">
-        <v>1784777.796682794</v>
+        <v>2337768.905007635</v>
       </c>
       <c r="H34">
-        <v>0.9998591079681511</v>
+        <v>0.9999393726529241</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
       </c>
       <c r="J34">
-        <v>2.764531658338609e-05</v>
+        <v>2.43305496327202e-05</v>
       </c>
       <c r="K34">
-        <v>0.001930085924825572</v>
+        <v>0.0002519288899028475</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.00001206303703</v>
+        <v>1.000003778933348</v>
       </c>
       <c r="N34">
-        <v>0.001017053366516092</v>
+        <v>0.0008382443218499189</v>
       </c>
       <c r="O34">
-        <v>3.640934017910782e-06</v>
+        <v>4.94799192117262e-05</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0.9979527537099385</v>
       </c>
       <c r="Q34">
-        <v>0.3372483466514601</v>
+        <v>0.3760722646904778</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0.9662295539739028</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9998591079681511</v>
+        <v>0.9641929840972118</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2860,55 +2860,55 @@
         <v>3.455107294592212e-06</v>
       </c>
       <c r="B35">
-        <v>0.03843280235387102</v>
+        <v>0.04869596159435555</v>
       </c>
       <c r="C35">
-        <v>1.048310032558821</v>
+        <v>1.061210823727119</v>
       </c>
       <c r="D35">
-        <v>1752996101.308736</v>
+        <v>1539377390.51664</v>
       </c>
       <c r="E35">
-        <v>7.212155524051183e-12</v>
+        <v>7.650951931250183e-12</v>
       </c>
       <c r="F35">
-        <v>3.171804605305972e-07</v>
+        <v>1.663437691639541e-08</v>
       </c>
       <c r="G35">
-        <v>2149652.427756815</v>
+        <v>2821966.588777401</v>
       </c>
       <c r="H35">
-        <v>0.9998756055577642</v>
+        <v>0.9999465226443254</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
       </c>
       <c r="J35">
-        <v>3.548691496862573e-05</v>
+        <v>3.116250773239341e-05</v>
       </c>
       <c r="K35">
-        <v>0.002477555100149886</v>
+        <v>0.0003226698984659579</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.000015484719376</v>
+        <v>1.000004840048477</v>
       </c>
       <c r="N35">
-        <v>0.00130554071346035</v>
+        <v>0.001073621252113181</v>
       </c>
       <c r="O35">
-        <v>3.644427328815013e-06</v>
+        <v>4.955827942178159e-05</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0.9979495148593642</v>
       </c>
       <c r="Q35">
-        <v>0.3249104994990378</v>
+        <v>0.3637300507579774</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0.9673195432101918</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9998756055577642</v>
+        <v>0.9652844452402927</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2931,55 +2931,55 @@
         <v>4.124626382901343e-06</v>
       </c>
       <c r="B36">
-        <v>0.03219429917700177</v>
+        <v>0.04079151818921594</v>
       </c>
       <c r="C36">
-        <v>1.040468234065491</v>
+        <v>1.051274938363876</v>
       </c>
       <c r="D36">
-        <v>1457461048.257088</v>
+        <v>1277428693.64979</v>
       </c>
       <c r="E36">
-        <v>5.996268755206733e-12</v>
+        <v>6.349024996030439e-12</v>
       </c>
       <c r="F36">
-        <v>2.637074698263544e-07</v>
+        <v>1.380378229854189e-08</v>
       </c>
       <c r="G36">
-        <v>2585545.822670824</v>
+        <v>3400637.221593707</v>
       </c>
       <c r="H36">
-        <v>0.9998900667282814</v>
+        <v>0.9999527756860058</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
       </c>
       <c r="J36">
-        <v>4.561577120072551e-05</v>
+        <v>3.99810993813207e-05</v>
       </c>
       <c r="K36">
-        <v>0.003184711510863814</v>
+        <v>0.0004139813582627002</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.000019904446943</v>
+        <v>1.000006209720374</v>
       </c>
       <c r="N36">
-        <v>0.001678174801362439</v>
+        <v>0.001377442353075296</v>
       </c>
       <c r="O36">
-        <v>3.65022397974732e-06</v>
+        <v>4.968795161558111e-05</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0.9979441551615061</v>
       </c>
       <c r="Q36">
-        <v>0.3137668443944204</v>
+        <v>0.3523793851555299</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0.968323050291743</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9998900667282814</v>
+        <v>0.9662866939655096</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3002,55 +3002,55 @@
         <v>4.923882631706728e-06</v>
       </c>
       <c r="B37">
-        <v>0.0269684445582434</v>
+        <v>0.03417014269154522</v>
       </c>
       <c r="C37">
-        <v>1.033899334809712</v>
+        <v>1.042951869363272</v>
       </c>
       <c r="D37">
-        <v>1213174603.28261</v>
+        <v>1061601554.366708</v>
       </c>
       <c r="E37">
-        <v>4.991228394730075e-12</v>
+        <v>5.276329581451239e-12</v>
       </c>
       <c r="F37">
-        <v>2.195072077376133e-07</v>
+        <v>1.147157318222037e-08</v>
       </c>
       <c r="G37">
-        <v>3106174.754095738</v>
+        <v>4091998.118963501</v>
       </c>
       <c r="H37">
-        <v>0.9999027677934381</v>
+        <v>0.9999582570215252</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
       </c>
       <c r="J37">
-        <v>5.870460149883951e-05</v>
+        <v>5.13700963002508e-05</v>
       </c>
       <c r="K37">
-        <v>0.004098521524745236</v>
+        <v>0.0005319078907169623</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.00002561575953</v>
+        <v>1.000007978618361</v>
       </c>
       <c r="N37">
-        <v>0.002159704426038713</v>
+        <v>0.001769819925426588</v>
       </c>
       <c r="O37">
-        <v>3.659858974222551e-06</v>
+        <v>4.990298775585776e-05</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0.9979352672073551</v>
       </c>
       <c r="Q37">
-        <v>0.3038152119064486</v>
+        <v>0.3420847129103564</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0.9692340977363226</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.9999027677934381</v>
+        <v>0.96719251312934</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3073,55 +3073,55 @@
         <v>5.878016072274899e-06</v>
       </c>
       <c r="B38">
-        <v>0.0225908629938619</v>
+        <v>0.02862356449065039</v>
       </c>
       <c r="C38">
-        <v>1.028396714783284</v>
+        <v>1.035979820564747</v>
       </c>
       <c r="D38">
-        <v>1010840556.000662</v>
+        <v>883335120.7304448</v>
       </c>
       <c r="E38">
-        <v>4.158788085411252e-12</v>
+        <v>4.390316883649627e-12</v>
       </c>
       <c r="F38">
-        <v>1.828976532440262e-07</v>
+        <v>9.545241753088503e-09</v>
       </c>
       <c r="G38">
-        <v>3727919.603795642</v>
+        <v>4917806.913377466</v>
       </c>
       <c r="H38">
-        <v>0.9999139419510329</v>
+        <v>0.9999630716037192</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
       </c>
       <c r="J38">
-        <v>7.562445560233146e-05</v>
+        <v>6.608533583571003e-05</v>
       </c>
       <c r="K38">
-        <v>0.005279798366222161</v>
+        <v>0.0006842757581422517</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <v>1.000032998739789</v>
+        <v>1.000010264136372</v>
       </c>
       <c r="N38">
-        <v>0.002782174945593526</v>
+        <v>0.002276794332970256</v>
       </c>
       <c r="O38">
-        <v>3.675896895715833e-06</v>
+        <v>5.026022126326281e-05</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0.9979205020734423</v>
       </c>
       <c r="Q38">
-        <v>0.2950141541138939</v>
+        <v>0.332858854208936</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0.970051286673416</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.9999139419510329</v>
+        <v>0.9679983190884832</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3144,55 +3144,55 @@
         <v>7.017038286703811e-06</v>
       </c>
       <c r="B39">
-        <v>0.01892386079980434</v>
+        <v>0.02397731995287058</v>
       </c>
       <c r="C39">
-        <v>1.023787293025354</v>
+        <v>1.030139491180758</v>
       </c>
       <c r="D39">
-        <v>842963238.0998257</v>
+        <v>735778615.6465329</v>
       </c>
       <c r="E39">
-        <v>3.468109238631446e-12</v>
+        <v>3.656937444341772e-12</v>
       </c>
       <c r="F39">
-        <v>1.52522568573458e-07</v>
+        <v>7.950759115398191e-09</v>
       </c>
       <c r="G39">
-        <v>4470340.051270776</v>
+        <v>5904047.047820409</v>
       </c>
       <c r="H39">
-        <v>0.999923787152917</v>
+        <v>0.9999673079257542</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
       </c>
       <c r="J39">
-        <v>9.750323113378348e-05</v>
+        <v>8.51054816890881e-05</v>
       </c>
       <c r="K39">
-        <v>0.006807287356203604</v>
+        <v>0.0008812184619843294</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1.000042545545976</v>
+        <v>1.00001321827693</v>
       </c>
       <c r="N39">
-        <v>0.00358708098609392</v>
+        <v>0.002932082828422503</v>
       </c>
       <c r="O39">
-        <v>3.70262517753813e-06</v>
+        <v>5.085458321880672e-05</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0.9978959364581074</v>
       </c>
       <c r="Q39">
-        <v>0.2872952087990484</v>
+        <v>0.3246753195311401</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0.9707767274112148</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.999923787152917</v>
+        <v>0.968702481562946</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3215,55 +3215,55 @@
         <v>8.376776400682898e-06</v>
       </c>
       <c r="B40">
-        <v>0.01585209505576096</v>
+        <v>0.02008526479328299</v>
       </c>
       <c r="C40">
-        <v>1.019926083485092</v>
+        <v>1.025247177845157</v>
       </c>
       <c r="D40">
-        <v>703468284.0908989</v>
+        <v>613418162.3346227</v>
       </c>
       <c r="E40">
-        <v>2.894200772787367e-12</v>
+        <v>3.048786413709048e-12</v>
       </c>
       <c r="F40">
-        <v>1.272828810914301e-07</v>
+        <v>6.628542800808687e-09</v>
       </c>
       <c r="G40">
-        <v>5356790.647493682</v>
+        <v>7081745.912159</v>
       </c>
       <c r="H40">
-        <v>0.9999324723418227</v>
+        <v>0.9999710410418516</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
       </c>
       <c r="J40">
-        <v>0.0001258014549196122</v>
+        <v>0.000109697763269508</v>
       </c>
       <c r="K40">
-        <v>0.008782956662136451</v>
+        <v>0.001135857436124132</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>1.000054893479138</v>
+        <v>1.000017037861542</v>
       </c>
       <c r="N40">
-        <v>0.004628154387477905</v>
+        <v>0.003779344427823395</v>
       </c>
       <c r="O40">
-        <v>3.747215284755358e-06</v>
+        <v>5.184474635697005e-05</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0.9978550132994178</v>
       </c>
       <c r="Q40">
-        <v>0.2805732851395691</v>
+        <v>0.3174798606119735</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0.9714150270070648</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.9999324723418227</v>
+        <v>0.9693032838672566</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3286,55 +3286,55 @@
         <v>9.999999999999974e-06</v>
       </c>
       <c r="B41">
-        <v>0.01327894557644808</v>
+        <v>0.01682497721218405</v>
       </c>
       <c r="C41">
-        <v>1.016691634589595</v>
+        <v>1.021148996355715</v>
       </c>
       <c r="D41">
-        <v>587410894.1861551</v>
+        <v>511792698.8450001</v>
       </c>
       <c r="E41">
-        <v>2.416718851929949e-12</v>
+        <v>2.543691600091465e-12</v>
       </c>
       <c r="F41">
-        <v>1.062838974938718e-07</v>
+        <v>5.530386965596368e-09</v>
       </c>
       <c r="G41">
-        <v>6415155.664158217</v>
+        <v>8487951.417362699</v>
       </c>
       <c r="H41">
-        <v>0.9999401424208926</v>
+        <v>0.9999743349596045</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
       </c>
       <c r="J41">
-        <v>0.0001624104268548831</v>
+        <v>0.0001415031139246926</v>
       </c>
       <c r="K41">
-        <v>0.01133884931185435</v>
+        <v>0.001465183604438713</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1.000070867808199</v>
+        <v>1.000021977754067</v>
       </c>
       <c r="N41">
-        <v>0.005974974853040465</v>
+        <v>0.004875113121651025</v>
       </c>
       <c r="O41">
-        <v>3.821668064506826e-06</v>
+        <v>5.3496073366116e-05</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0.997786768160705</v>
       </c>
       <c r="Q41">
-        <v>0.2747549210318906</v>
+        <v>0.3112004450217832</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0.9719724085541174</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.9999401424208926</v>
+        <v>0.9697963177721024</v>
       </c>
     </row>
   </sheetData>
